--- a/src/main/resources/files/saigon-hotel.xlsx
+++ b/src/main/resources/files/saigon-hotel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pham Van Thanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pham Van Thanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C06B935-087E-4084-A526-A9F1AAB100A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92938011-9DCD-4DC3-B08A-5EC9E9793340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0498A3C-FA71-4E36-AC38-81C3272E11DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CCCD</t>
   </si>
@@ -57,40 +57,13 @@
   </si>
   <si>
     <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>040202011678</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>06/01/2002</t>
-  </si>
-  <si>
-    <t>039432091</t>
-  </si>
-  <si>
-    <t>anguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>97 Man Thiện, Hiệp Phú, HCM</t>
-  </si>
-  <si>
-    <t>(*) Vui lòng đặt tên file là tên công ty</t>
-  </si>
-  <si>
-    <t>File khai báo thông tin khách hàng dự kiến sẽ lưu trú tại SAIGON HOTEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,29 +96,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,20 +118,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,94 +460,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB818C9-0E18-48BB-A21C-574710E72350}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{3D8A3235-E898-4CD4-BF1E-E134B17A5F23}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>